--- a/forms/app/declaration.xlsx
+++ b/forms/app/declaration.xlsx
@@ -1,20 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EC8FBE-90AF-624C-AD48-63058158B155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="settings" sheetId="3" r:id="rId5"/>
-    <sheet state="hidden" name="choices-backup" sheetId="4" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="245">
   <si>
     <t>form_title</t>
   </si>
@@ -689,61 +712,139 @@
 ../bruising = 'true' or 
 ../bleeding = 'true', 'true', 'false')</t>
   </si>
+  <si>
+    <t>Informations sur le trajet</t>
+  </si>
+  <si>
+    <t>Numéro de vol</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t>Avez-vous rencontré des patients présentant des signes de maladie respiratoire aiguë dans les 14 derniers jours?</t>
+  </si>
+  <si>
+    <t>Information sur la santé</t>
+  </si>
+  <si>
+    <t>saignements inexpliqués ou inhabituels</t>
+  </si>
+  <si>
+    <t>Remarques</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Informations du contact</t>
+  </si>
+  <si>
+    <t>Avez-vous été en contact avec une personne ayant une maladie grave ou qui est mort d'une cause inconnue?</t>
+  </si>
+  <si>
+    <t>Avez-vous assisté ou été en contact avec un cadavre ?</t>
+  </si>
+  <si>
+    <t>Avez-vous consulté des guérisseurs traditionnels ou été admis à l'hôpital?</t>
+  </si>
+  <si>
+    <t>Fièvre (température égale ou supérieure à 38° C/100° F), sensation de fébrilité ou d'avoir des frissons</t>
+  </si>
+  <si>
+    <t>Maux de tête</t>
+  </si>
+  <si>
+    <t>Vomissements/ sensation d'être malade</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Fatigue intense, corps endolori ou épuisement</t>
+  </si>
+  <si>
+    <t>Bleus</t>
+  </si>
+  <si>
+    <t>Où avez-vous débuté et effectué une escale lors de ce voyage?</t>
+  </si>
+  <si>
+    <t>Symtômes respiratoires tels que la toux, des éternuements, un écoulement nasal, etc...</t>
+  </si>
+  <si>
+    <t>Avez-vous eu une température élevée ou une fièvre à un moment donné au cours des 48 dernières heures?</t>
+  </si>
+  <si>
+    <t>Vers</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd-MM-yyyy HH-mm-ss"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -752,7 +853,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -834,207 +935,429 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="55">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Bureau">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Bureau">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Bureau">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.29"/>
-    <col customWidth="1" min="2" max="2" width="33.29"/>
-    <col customWidth="1" min="3" max="3" width="43.29"/>
-    <col customWidth="1" min="4" max="4" width="14.43"/>
-    <col customWidth="1" min="5" max="5" width="53.86"/>
-    <col customWidth="1" min="6" max="6" width="32.29"/>
-    <col customWidth="1" min="7" max="8" width="17.43"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="22.71"/>
-    <col customWidth="1" min="11" max="11" width="73.86"/>
-    <col customWidth="1" min="12" max="12" width="14.43"/>
-    <col customWidth="1" min="13" max="13" width="30.0"/>
-    <col customWidth="1" min="14" max="14" width="14.43"/>
-    <col customWidth="1" min="15" max="27" width="29.86"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="53.83203125" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="8" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="28" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1044,55 +1367,57 @@
       <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
@@ -1100,8 +1425,9 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+      <c r="AB1" s="7"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -1111,15 +1437,15 @@
       <c r="C2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
@@ -1130,7 +1456,7 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="19"/>
+      <c r="S2" s="17"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
@@ -1139,8 +1465,9 @@
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="19"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+      <c r="AB2" s="19"/>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>41</v>
       </c>
@@ -1150,7 +1477,7 @@
       <c r="C3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -1160,14 +1487,14 @@
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="17"/>
+      <c r="O3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="17"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
-      <c r="S3" s="19"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
@@ -1176,8 +1503,9 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
       <c r="AA3" s="19"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>41</v>
       </c>
@@ -1187,7 +1515,7 @@
       <c r="C4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -1202,7 +1530,7 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="S4" s="19"/>
+      <c r="S4" s="17"/>
       <c r="T4" s="19"/>
       <c r="U4" s="19"/>
       <c r="V4" s="19"/>
@@ -1211,8 +1539,9 @@
       <c r="Y4" s="19"/>
       <c r="Z4" s="19"/>
       <c r="AA4" s="19"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+      <c r="AB4" s="19"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -1222,7 +1551,7 @@
       <c r="C5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -1237,7 +1566,7 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
-      <c r="S5" s="19"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
@@ -1246,8 +1575,9 @@
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+      <c r="AB5" s="19"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
@@ -1257,13 +1587,13 @@
       <c r="C6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -1274,7 +1604,7 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
-      <c r="S6" s="19"/>
+      <c r="S6" s="17"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
@@ -1283,8 +1613,9 @@
       <c r="Y6" s="19"/>
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="AB6" s="19"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>41</v>
       </c>
@@ -1294,7 +1625,7 @@
       <c r="C7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -1309,7 +1640,7 @@
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
-      <c r="S7" s="19"/>
+      <c r="S7" s="17"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
@@ -1318,8 +1649,9 @@
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="AB7" s="19"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>41</v>
       </c>
@@ -1329,7 +1661,7 @@
       <c r="C8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -1344,7 +1676,7 @@
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
@@ -1353,8 +1685,9 @@
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="AB8" s="19"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>55</v>
       </c>
@@ -1362,7 +1695,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -1377,7 +1710,7 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
-      <c r="S9" s="19"/>
+      <c r="S9" s="17"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
@@ -1386,8 +1719,9 @@
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="AB9" s="19"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>55</v>
       </c>
@@ -1395,7 +1729,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -1408,11 +1742,11 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="17"/>
+      <c r="R10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="19"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
@@ -1421,12 +1755,13 @@
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+      <c r="AB10" s="19"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
@@ -1439,9 +1774,9 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="25"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="23"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
       <c r="V11" s="25"/>
@@ -1450,8 +1785,9 @@
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
       <c r="AA11" s="25"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+      <c r="AB11" s="25"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
         <v>56</v>
       </c>
@@ -1461,24 +1797,24 @@
       <c r="C12" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="27"/>
+      <c r="L12" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="29"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="27"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
       <c r="V12" s="29"/>
@@ -1487,8 +1823,9 @@
       <c r="Y12" s="29"/>
       <c r="Z12" s="29"/>
       <c r="AA12" s="29"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+      <c r="AB12" s="29"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
         <v>56</v>
       </c>
@@ -1498,24 +1835,24 @@
       <c r="C13" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="27"/>
+      <c r="L13" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="27"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="29"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="27"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
       <c r="V13" s="29"/>
@@ -1524,8 +1861,9 @@
       <c r="Y13" s="29"/>
       <c r="Z13" s="29"/>
       <c r="AA13" s="29"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+      <c r="AB13" s="29"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26" t="s">
         <v>56</v>
       </c>
@@ -1535,24 +1873,24 @@
       <c r="C14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="27"/>
+      <c r="L14" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="29"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="27"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
       <c r="V14" s="29"/>
@@ -1561,8 +1899,9 @@
       <c r="Y14" s="29"/>
       <c r="Z14" s="29"/>
       <c r="AA14" s="29"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+      <c r="AB14" s="29"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
         <v>56</v>
       </c>
@@ -1572,24 +1911,24 @@
       <c r="C15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="27"/>
+      <c r="L15" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="27"/>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="29"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="27"/>
       <c r="T15" s="29"/>
       <c r="U15" s="29"/>
       <c r="V15" s="29"/>
@@ -1598,15 +1937,16 @@
       <c r="Y15" s="29"/>
       <c r="Z15" s="29"/>
       <c r="AA15" s="29"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+      <c r="AB15" s="29"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -1618,7 +1958,7 @@
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
-      <c r="S16" s="37"/>
+      <c r="S16" s="23"/>
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
       <c r="V16" s="37"/>
@@ -1627,8 +1967,9 @@
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
       <c r="AA16" s="37"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+      <c r="AB16" s="37"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
         <v>29</v>
       </c>
@@ -1638,19 +1979,21 @@
       <c r="C17" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="D17" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="41"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
       <c r="K17" s="41"/>
       <c r="L17" s="41"/>
-      <c r="M17" s="41" t="s">
+      <c r="M17" s="41"/>
+      <c r="N17" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="N17" s="41"/>
       <c r="O17" s="41"/>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -1664,8 +2007,9 @@
       <c r="Y17" s="41"/>
       <c r="Z17" s="41"/>
       <c r="AA17" s="41"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+      <c r="AB17" s="41"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
         <v>117</v>
       </c>
@@ -1675,7 +2019,9 @@
       <c r="C18" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="47" t="s">
+        <v>222</v>
+      </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
@@ -1688,8 +2034,8 @@
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42"/>
       <c r="S18" s="41"/>
       <c r="T18" s="41"/>
       <c r="U18" s="41"/>
@@ -1699,8 +2045,9 @@
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
       <c r="AA18" s="41"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+      <c r="AB18" s="41"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
         <v>120</v>
       </c>
@@ -1710,7 +2057,9 @@
       <c r="C19" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="52" t="s">
+        <v>240</v>
+      </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
@@ -1723,8 +2072,8 @@
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
       <c r="P19" s="41"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="42"/>
       <c r="S19" s="41"/>
       <c r="T19" s="41"/>
       <c r="U19" s="41"/>
@@ -1734,18 +2083,21 @@
       <c r="Y19" s="41"/>
       <c r="Z19" s="41"/>
       <c r="AA19" s="41"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+      <c r="AB19" s="41"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="s">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="47" t="s">
+        <v>223</v>
+      </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
@@ -1769,32 +2121,35 @@
       <c r="Y20" s="41"/>
       <c r="Z20" s="41"/>
       <c r="AA20" s="41"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+      <c r="AB20" s="41"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="47" t="s">
+        <v>243</v>
+      </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
       <c r="P21" s="41"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="42"/>
       <c r="S21" s="41"/>
       <c r="T21" s="41"/>
       <c r="U21" s="41"/>
@@ -1804,22 +2159,23 @@
       <c r="Y21" s="41"/>
       <c r="Z21" s="41"/>
       <c r="AA21" s="41"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="AB21" s="41"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
         <v>136</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="42"/>
-      <c r="D22" s="41"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="41"/>
       <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
       <c r="O22" s="41"/>
@@ -1835,22 +2191,23 @@
       <c r="Y22" s="41"/>
       <c r="Z22" s="41"/>
       <c r="AA22" s="41"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="AB22" s="41"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
       <c r="O23" s="41"/>
@@ -1866,8 +2223,9 @@
       <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
       <c r="AA23" s="41"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+      <c r="AB23" s="41"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49"/>
       <c r="B24" s="49"/>
       <c r="C24" s="50"/>
@@ -1878,8 +2236,8 @@
       <c r="H24" s="50"/>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="49"/>
       <c r="M24" s="50"/>
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
@@ -1895,8 +2253,9 @@
       <c r="Y24" s="50"/>
       <c r="Z24" s="50"/>
       <c r="AA24" s="50"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+      <c r="AB24" s="50"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
         <v>29</v>
       </c>
@@ -1906,13 +2265,15 @@
       <c r="C25" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
+      <c r="D25" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="41"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
       <c r="K25" s="41"/>
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
@@ -1930,8 +2291,9 @@
       <c r="Y25" s="41"/>
       <c r="Z25" s="41"/>
       <c r="AA25" s="41"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+      <c r="AB25" s="41"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
         <v>179</v>
       </c>
@@ -1941,15 +2303,17 @@
       <c r="C26" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="45"/>
+      <c r="D26" s="52" t="s">
+        <v>224</v>
+      </c>
       <c r="E26" s="45"/>
-      <c r="F26" s="41"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="41"/>
       <c r="N26" s="41"/>
       <c r="O26" s="41"/>
@@ -1965,8 +2329,9 @@
       <c r="Y26" s="41"/>
       <c r="Z26" s="41"/>
       <c r="AA26" s="41"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+      <c r="AB26" s="41"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
         <v>179</v>
       </c>
@@ -1976,15 +2341,17 @@
       <c r="C27" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="45"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="41"/>
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
@@ -2000,8 +2367,9 @@
       <c r="Y27" s="41"/>
       <c r="Z27" s="41"/>
       <c r="AA27" s="41"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+      <c r="AB27" s="41"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
         <v>179</v>
       </c>
@@ -2011,15 +2379,17 @@
       <c r="C28" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="41"/>
+      <c r="D28" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="45"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="41"/>
       <c r="N28" s="41"/>
       <c r="O28" s="41"/>
@@ -2035,8 +2405,9 @@
       <c r="Y28" s="41"/>
       <c r="Z28" s="41"/>
       <c r="AA28" s="41"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+      <c r="AB28" s="41"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
         <v>179</v>
       </c>
@@ -2046,15 +2417,17 @@
       <c r="C29" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="41"/>
+      <c r="D29" s="52" t="s">
+        <v>233</v>
+      </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
       <c r="O29" s="41"/>
@@ -2070,8 +2443,9 @@
       <c r="Y29" s="41"/>
       <c r="Z29" s="41"/>
       <c r="AA29" s="41"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+      <c r="AB29" s="41"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46" t="s">
         <v>56</v>
       </c>
@@ -2079,17 +2453,17 @@
         <v>194</v>
       </c>
       <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
-      <c r="K30" s="40" t="s">
+      <c r="K30" s="41"/>
+      <c r="L30" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="L30" s="41"/>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
       <c r="O30" s="41"/>
@@ -2105,22 +2479,23 @@
       <c r="Y30" s="41"/>
       <c r="Z30" s="41"/>
       <c r="AA30" s="41"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+      <c r="AB30" s="41"/>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
       <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
       <c r="M31" s="41"/>
       <c r="N31" s="41"/>
       <c r="O31" s="41"/>
@@ -2136,15 +2511,16 @@
       <c r="Y31" s="41"/>
       <c r="Z31" s="41"/>
       <c r="AA31" s="41"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+      <c r="AB31" s="41"/>
+    </row>
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
       <c r="C32" s="49"/>
       <c r="D32" s="50"/>
-      <c r="E32" s="49"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="50"/>
       <c r="I32" s="50"/>
       <c r="J32" s="50"/>
@@ -2165,8 +2541,9 @@
       <c r="Y32" s="50"/>
       <c r="Z32" s="50"/>
       <c r="AA32" s="50"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+      <c r="AB32" s="50"/>
+    </row>
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="s">
         <v>29</v>
       </c>
@@ -2176,13 +2553,15 @@
       <c r="C33" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="D33" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="44"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="41"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
       <c r="K33" s="41"/>
       <c r="L33" s="41"/>
       <c r="M33" s="41"/>
@@ -2200,8 +2579,9 @@
       <c r="Y33" s="41"/>
       <c r="Z33" s="41"/>
       <c r="AA33" s="41"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+      <c r="AB33" s="41"/>
+    </row>
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="s">
         <v>179</v>
       </c>
@@ -2211,10 +2591,12 @@
       <c r="C34" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="42"/>
+      <c r="D34" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="45"/>
       <c r="F34" s="42"/>
-      <c r="G34" s="41"/>
+      <c r="G34" s="42"/>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
       <c r="J34" s="41"/>
@@ -2235,8 +2617,9 @@
       <c r="Y34" s="41"/>
       <c r="Z34" s="41"/>
       <c r="AA34" s="41"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+      <c r="AB34" s="41"/>
+    </row>
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="s">
         <v>179</v>
       </c>
@@ -2246,10 +2629,12 @@
       <c r="C35" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="42"/>
+      <c r="D35" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="45"/>
       <c r="F35" s="42"/>
-      <c r="G35" s="41"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="J35" s="41"/>
@@ -2270,8 +2655,9 @@
       <c r="Y35" s="41"/>
       <c r="Z35" s="41"/>
       <c r="AA35" s="41"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+      <c r="AB35" s="41"/>
+    </row>
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
         <v>179</v>
       </c>
@@ -2281,10 +2667,12 @@
       <c r="C36" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="41"/>
+      <c r="D36" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" s="45"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
       <c r="J36" s="41"/>
@@ -2305,8 +2693,9 @@
       <c r="Y36" s="41"/>
       <c r="Z36" s="41"/>
       <c r="AA36" s="41"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+      <c r="AB36" s="41"/>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="s">
         <v>179</v>
       </c>
@@ -2316,10 +2705,12 @@
       <c r="C37" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
+      <c r="D37" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E37" s="41"/>
       <c r="F37" s="42"/>
-      <c r="G37" s="41"/>
+      <c r="G37" s="42"/>
       <c r="H37" s="41"/>
       <c r="I37" s="41"/>
       <c r="J37" s="41"/>
@@ -2340,8 +2731,9 @@
       <c r="Y37" s="41"/>
       <c r="Z37" s="41"/>
       <c r="AA37" s="41"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+      <c r="AB37" s="41"/>
+    </row>
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="s">
         <v>179</v>
       </c>
@@ -2351,10 +2743,12 @@
       <c r="C38" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
+      <c r="D38" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" s="41"/>
       <c r="F38" s="42"/>
-      <c r="G38" s="41"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
@@ -2375,8 +2769,9 @@
       <c r="Y38" s="41"/>
       <c r="Z38" s="41"/>
       <c r="AA38" s="41"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+      <c r="AB38" s="41"/>
+    </row>
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="s">
         <v>179</v>
       </c>
@@ -2386,10 +2781,12 @@
       <c r="C39" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
+      <c r="D39" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" s="41"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="41"/>
+      <c r="G39" s="42"/>
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
       <c r="J39" s="41"/>
@@ -2410,8 +2807,9 @@
       <c r="Y39" s="41"/>
       <c r="Z39" s="41"/>
       <c r="AA39" s="41"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+      <c r="AB39" s="41"/>
+    </row>
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
         <v>179</v>
       </c>
@@ -2421,10 +2819,12 @@
       <c r="C40" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
+      <c r="D40" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="E40" s="41"/>
       <c r="F40" s="42"/>
-      <c r="G40" s="41"/>
+      <c r="G40" s="42"/>
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
@@ -2445,8 +2845,9 @@
       <c r="Y40" s="41"/>
       <c r="Z40" s="41"/>
       <c r="AA40" s="41"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+      <c r="AB40" s="41"/>
+    </row>
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="s">
         <v>179</v>
       </c>
@@ -2456,12 +2857,14 @@
       <c r="C41" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
+      <c r="D41" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="E41" s="41"/>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
       <c r="H41" s="42"/>
-      <c r="I41" s="41"/>
+      <c r="I41" s="42"/>
       <c r="J41" s="41"/>
       <c r="K41" s="41"/>
       <c r="L41" s="41"/>
@@ -2480,8 +2883,9 @@
       <c r="Y41" s="41"/>
       <c r="Z41" s="41"/>
       <c r="AA41" s="41"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+      <c r="AB41" s="41"/>
+    </row>
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
         <v>179</v>
       </c>
@@ -2491,10 +2895,12 @@
       <c r="C42" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
+      <c r="D42" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="41"/>
       <c r="F42" s="42"/>
-      <c r="G42" s="41"/>
+      <c r="G42" s="42"/>
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
       <c r="J42" s="41"/>
@@ -2515,8 +2921,9 @@
       <c r="Y42" s="41"/>
       <c r="Z42" s="41"/>
       <c r="AA42" s="41"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+      <c r="AB42" s="41"/>
+    </row>
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="46" t="s">
         <v>117</v>
       </c>
@@ -2526,21 +2933,23 @@
       <c r="C43" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
+      <c r="D43" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="41"/>
       <c r="F43" s="42"/>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="42"/>
+      <c r="H43" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="H43" s="41"/>
       <c r="I43" s="41"/>
       <c r="J43" s="41"/>
       <c r="K43" s="41"/>
       <c r="L43" s="41"/>
-      <c r="M43" s="52" t="s">
+      <c r="M43" s="41"/>
+      <c r="N43" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="N43" s="41"/>
       <c r="O43" s="41"/>
       <c r="P43" s="41"/>
       <c r="Q43" s="41"/>
@@ -2554,8 +2963,9 @@
       <c r="Y43" s="41"/>
       <c r="Z43" s="41"/>
       <c r="AA43" s="41"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+      <c r="AB43" s="41"/>
+    </row>
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="46" t="s">
         <v>56</v>
       </c>
@@ -2563,17 +2973,17 @@
         <v>219</v>
       </c>
       <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
-      <c r="K44" s="40" t="s">
+      <c r="K44" s="41"/>
+      <c r="L44" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="L44" s="41"/>
       <c r="M44" s="41"/>
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
@@ -2589,17 +2999,18 @@
       <c r="Y44" s="41"/>
       <c r="Z44" s="41"/>
       <c r="AA44" s="41"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+      <c r="AB44" s="41"/>
+    </row>
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="42"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="41"/>
       <c r="F45" s="42"/>
-      <c r="G45" s="41"/>
+      <c r="G45" s="42"/>
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
@@ -2620,340 +3031,379 @@
       <c r="Y45" s="41"/>
       <c r="Z45" s="41"/>
       <c r="AA45" s="41"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+      <c r="AB45" s="41"/>
+    </row>
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
-      <c r="E46" s="53"/>
+      <c r="D46" s="53"/>
       <c r="F46" s="53"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+      <c r="G46" s="53"/>
+    </row>
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
-      <c r="E47" s="53"/>
+      <c r="D47" s="53"/>
       <c r="F47" s="53"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+      <c r="G47" s="53"/>
+    </row>
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
-      <c r="E48" s="53"/>
+      <c r="D48" s="53"/>
       <c r="F48" s="53"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+      <c r="G48" s="53"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
-      <c r="E49" s="53"/>
+      <c r="D49" s="53"/>
       <c r="F49" s="53"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+      <c r="G49" s="53"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="53"/>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
-      <c r="E50" s="53"/>
+      <c r="D50" s="53"/>
       <c r="F50" s="53"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+      <c r="G50" s="53"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="53"/>
       <c r="B51" s="53"/>
       <c r="C51" s="53"/>
-      <c r="E51" s="53"/>
+      <c r="D51" s="53"/>
       <c r="F51" s="53"/>
       <c r="G51" s="53"/>
       <c r="H51" s="53"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+      <c r="I51" s="53"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="53"/>
       <c r="B52" s="53"/>
       <c r="C52" s="53"/>
-      <c r="E52" s="53"/>
+      <c r="D52" s="53"/>
       <c r="F52" s="53"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+      <c r="G52" s="53"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="53"/>
       <c r="B53" s="53"/>
       <c r="C53" s="53"/>
-      <c r="E53" s="53"/>
+      <c r="D53" s="53"/>
       <c r="F53" s="53"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+      <c r="G53" s="53"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="53"/>
       <c r="B54" s="53"/>
       <c r="C54" s="53"/>
-      <c r="E54" s="53"/>
+      <c r="D54" s="53"/>
       <c r="F54" s="53"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+      <c r="G54" s="53"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="53"/>
       <c r="B55" s="53"/>
       <c r="C55" s="53"/>
-      <c r="E55" s="53"/>
+      <c r="D55" s="53"/>
       <c r="F55" s="53"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+      <c r="G55" s="53"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="53"/>
       <c r="B56" s="53"/>
       <c r="C56" s="53"/>
-      <c r="E56" s="53"/>
+      <c r="D56" s="53"/>
       <c r="F56" s="53"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+      <c r="G56" s="53"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="53"/>
       <c r="B57" s="53"/>
       <c r="C57" s="53"/>
-      <c r="E57" s="53"/>
+      <c r="D57" s="53"/>
       <c r="F57" s="53"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+      <c r="G57" s="53"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="53"/>
       <c r="B58" s="53"/>
       <c r="C58" s="53"/>
-      <c r="E58" s="53"/>
+      <c r="D58" s="53"/>
       <c r="F58" s="53"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+      <c r="G58" s="53"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="53"/>
       <c r="B59" s="53"/>
       <c r="C59" s="53"/>
-      <c r="E59" s="53"/>
+      <c r="D59" s="53"/>
       <c r="F59" s="53"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+      <c r="G59" s="53"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="53"/>
       <c r="B60" s="53"/>
       <c r="C60" s="53"/>
-      <c r="E60" s="53"/>
+      <c r="D60" s="53"/>
       <c r="F60" s="53"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+      <c r="G60" s="53"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="53"/>
       <c r="B61" s="53"/>
       <c r="C61" s="53"/>
-      <c r="E61" s="53"/>
+      <c r="D61" s="53"/>
       <c r="F61" s="53"/>
       <c r="G61" s="53"/>
       <c r="H61" s="53"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+      <c r="I61" s="53"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="53"/>
       <c r="B62" s="53"/>
       <c r="C62" s="53"/>
-      <c r="E62" s="53"/>
+      <c r="D62" s="53"/>
       <c r="F62" s="53"/>
       <c r="G62" s="53"/>
       <c r="H62" s="53"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+      <c r="I62" s="53"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="53"/>
       <c r="B63" s="53"/>
       <c r="C63" s="53"/>
-      <c r="E63" s="53"/>
+      <c r="D63" s="53"/>
       <c r="F63" s="53"/>
       <c r="G63" s="53"/>
       <c r="H63" s="53"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+      <c r="I63" s="53"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="53"/>
       <c r="B64" s="53"/>
       <c r="C64" s="53"/>
-      <c r="E64" s="53"/>
+      <c r="D64" s="53"/>
       <c r="F64" s="53"/>
       <c r="G64" s="53"/>
       <c r="H64" s="53"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+      <c r="I64" s="53"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="53"/>
       <c r="B65" s="53"/>
       <c r="C65" s="53"/>
-      <c r="E65" s="53"/>
+      <c r="D65" s="53"/>
       <c r="F65" s="53"/>
       <c r="G65" s="53"/>
       <c r="H65" s="53"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+      <c r="I65" s="53"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="53"/>
       <c r="B66" s="53"/>
       <c r="C66" s="53"/>
-      <c r="E66" s="53"/>
+      <c r="D66" s="53"/>
       <c r="F66" s="53"/>
       <c r="G66" s="53"/>
       <c r="H66" s="53"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+      <c r="I66" s="53"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="53"/>
       <c r="B67" s="53"/>
       <c r="C67" s="53"/>
-      <c r="E67" s="53"/>
+      <c r="D67" s="53"/>
       <c r="F67" s="53"/>
       <c r="G67" s="53"/>
       <c r="H67" s="53"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+      <c r="I67" s="53"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="53"/>
       <c r="B68" s="53"/>
       <c r="C68" s="53"/>
-      <c r="E68" s="53"/>
+      <c r="D68" s="53"/>
       <c r="F68" s="53"/>
       <c r="G68" s="53"/>
       <c r="H68" s="53"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+      <c r="I68" s="53"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="53"/>
       <c r="B69" s="53"/>
       <c r="C69" s="53"/>
-      <c r="E69" s="53"/>
+      <c r="D69" s="53"/>
       <c r="F69" s="53"/>
       <c r="G69" s="53"/>
       <c r="H69" s="53"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+      <c r="I69" s="53"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="53"/>
       <c r="B70" s="53"/>
       <c r="C70" s="53"/>
-      <c r="E70" s="53"/>
+      <c r="D70" s="53"/>
       <c r="F70" s="53"/>
       <c r="G70" s="53"/>
       <c r="H70" s="53"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+      <c r="I70" s="53"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="53"/>
       <c r="B71" s="53"/>
       <c r="C71" s="53"/>
-      <c r="E71" s="53"/>
+      <c r="D71" s="53"/>
       <c r="F71" s="53"/>
       <c r="G71" s="53"/>
       <c r="H71" s="53"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+      <c r="I71" s="53"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="53"/>
       <c r="B72" s="53"/>
       <c r="C72" s="53"/>
-      <c r="E72" s="53"/>
+      <c r="D72" s="53"/>
       <c r="F72" s="53"/>
       <c r="G72" s="53"/>
       <c r="H72" s="53"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+      <c r="I72" s="53"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="53"/>
       <c r="B73" s="53"/>
       <c r="C73" s="53"/>
-      <c r="E73" s="53"/>
+      <c r="D73" s="53"/>
       <c r="F73" s="53"/>
       <c r="G73" s="53"/>
       <c r="H73" s="53"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+      <c r="I73" s="53"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="53"/>
       <c r="B74" s="53"/>
       <c r="C74" s="53"/>
-      <c r="E74" s="53"/>
+      <c r="D74" s="53"/>
       <c r="F74" s="53"/>
       <c r="G74" s="53"/>
       <c r="H74" s="53"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+      <c r="I74" s="53"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="53"/>
       <c r="B75" s="53"/>
       <c r="C75" s="53"/>
-      <c r="E75" s="53"/>
+      <c r="D75" s="53"/>
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
       <c r="H75" s="53"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+      <c r="I75" s="53"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="53"/>
       <c r="B76" s="53"/>
       <c r="C76" s="53"/>
-      <c r="E76" s="53"/>
+      <c r="D76" s="53"/>
       <c r="F76" s="53"/>
       <c r="G76" s="53"/>
       <c r="H76" s="53"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+      <c r="I76" s="53"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="53"/>
       <c r="B77" s="53"/>
       <c r="C77" s="53"/>
-      <c r="E77" s="53"/>
+      <c r="D77" s="53"/>
       <c r="F77" s="53"/>
       <c r="G77" s="53"/>
       <c r="H77" s="53"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+      <c r="I77" s="53"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="53"/>
       <c r="B78" s="53"/>
       <c r="C78" s="53"/>
-      <c r="E78" s="53"/>
+      <c r="D78" s="53"/>
       <c r="F78" s="53"/>
       <c r="G78" s="53"/>
       <c r="H78" s="53"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+      <c r="I78" s="53"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="53"/>
       <c r="B79" s="53"/>
       <c r="C79" s="53"/>
-      <c r="E79" s="53"/>
+      <c r="D79" s="53"/>
       <c r="F79" s="53"/>
       <c r="G79" s="53"/>
       <c r="H79" s="53"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+      <c r="I79" s="53"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="53"/>
       <c r="B80" s="53"/>
       <c r="C80" s="53"/>
-      <c r="E80" s="53"/>
+      <c r="D80" s="53"/>
       <c r="F80" s="53"/>
       <c r="G80" s="53"/>
       <c r="H80" s="53"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+      <c r="I80" s="53"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="53"/>
       <c r="B81" s="53"/>
       <c r="C81" s="53"/>
-      <c r="E81" s="53"/>
+      <c r="D81" s="53"/>
       <c r="F81" s="53"/>
       <c r="G81" s="53"/>
       <c r="H81" s="53"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+      <c r="I81" s="53"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="53"/>
       <c r="B82" s="53"/>
       <c r="C82" s="53"/>
-      <c r="E82" s="53"/>
+      <c r="D82" s="53"/>
       <c r="F82" s="53"/>
       <c r="G82" s="53"/>
       <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D82">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E82" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.29"/>
-    <col customWidth="1" min="2" max="16" width="45.86"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="16" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2963,7 +3413,9 @@
       <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="54" t="s">
+        <v>69</v>
+      </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -2977,7 +3429,7 @@
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
@@ -2987,7 +3439,9 @@
       <c r="C2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="16" t="s">
+        <v>228</v>
+      </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -3001,7 +3455,7 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
@@ -3011,7 +3465,9 @@
       <c r="C3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -3025,7 +3481,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="18"/>
@@ -3043,220 +3499,221 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="20"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="20"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="16"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="16"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="16"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="16"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="16"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="16"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="16"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="16"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="16"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="16"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="16"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="16"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="16"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="16"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="16"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="16"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="16"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="16"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="16"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="16"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="16"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="16"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="16"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="16"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="16"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="16"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="16"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="16"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="16"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="16"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="16"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="16"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="16"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="16"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="16"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="16"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="16"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="16"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="16"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="16"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="16"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="16"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="16"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="16"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="16"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="16"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="16"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="16"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="16"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="16"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="16"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="16"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="16"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="16"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="16"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="16"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="16"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="16"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="16"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="16"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.0"/>
-    <col customWidth="1" min="2" max="2" width="28.57"/>
-    <col customWidth="1" min="3" max="3" width="24.57"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3298,7 +3755,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -3306,8 +3763,8 @@
         <v>13</v>
       </c>
       <c r="C2" s="8">
-        <f>NOW()</f>
-        <v>43909.03144</v>
+        <f ca="1">NOW()</f>
+        <v>43918.788459606483</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -3338,28 +3795,29 @@
       <c r="Z2" s="10"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.29"/>
-    <col customWidth="1" min="2" max="23" width="45.86"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="23" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -3402,7 +3860,7 @@
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
@@ -3433,7 +3891,7 @@
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
@@ -3464,7 +3922,7 @@
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3489,7 +3947,7 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>73</v>
       </c>
@@ -3520,7 +3978,7 @@
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>73</v>
       </c>
@@ -3551,7 +4009,7 @@
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>73</v>
       </c>
@@ -3582,7 +4040,7 @@
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>73</v>
       </c>
@@ -3613,7 +4071,7 @@
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>73</v>
       </c>
@@ -3644,7 +4102,7 @@
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -3669,7 +4127,7 @@
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>85</v>
       </c>
@@ -3700,7 +4158,7 @@
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>85</v>
       </c>
@@ -3731,7 +4189,7 @@
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>85</v>
       </c>
@@ -3762,7 +4220,7 @@
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>85</v>
       </c>
@@ -3793,7 +4251,7 @@
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>85</v>
       </c>
@@ -3824,7 +4282,7 @@
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>85</v>
       </c>
@@ -3855,7 +4313,7 @@
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -3880,7 +4338,7 @@
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>98</v>
       </c>
@@ -3911,7 +4369,7 @@
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>98</v>
       </c>
@@ -3942,7 +4400,7 @@
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>98</v>
       </c>
@@ -3973,7 +4431,7 @@
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>98</v>
       </c>
@@ -4004,7 +4462,7 @@
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>98</v>
       </c>
@@ -4035,7 +4493,7 @@
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>98</v>
       </c>
@@ -4066,7 +4524,7 @@
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -4091,7 +4549,7 @@
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>101</v>
       </c>
@@ -4122,7 +4580,7 @@
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>101</v>
       </c>
@@ -4153,7 +4611,7 @@
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>101</v>
       </c>
@@ -4184,7 +4642,7 @@
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>101</v>
       </c>
@@ -4215,7 +4673,7 @@
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>101</v>
       </c>
@@ -4246,7 +4704,7 @@
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -4271,7 +4729,7 @@
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>112</v>
       </c>
@@ -4302,7 +4760,7 @@
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>112</v>
       </c>
@@ -4333,7 +4791,7 @@
       <c r="V32" s="16"/>
       <c r="W32" s="16"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -4358,115 +4816,115 @@
       <c r="V33" s="16"/>
       <c r="W33" s="16"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>115</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
+        <f t="shared" ref="B34:B42" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>115</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>115</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>115</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>115</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>115</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>115</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>115</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>115</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -4477,43 +4935,43 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="str">
-        <f t="shared" ref="B44:B47" si="2">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
+        <f t="shared" ref="B44:B47" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>137</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>137</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>140</v>
       </c>
@@ -4544,7 +5002,7 @@
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>140</v>
       </c>
@@ -4575,8 +5033,8 @@
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -4587,7 +5045,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -4598,7 +5056,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -4609,7 +5067,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -4620,7 +5078,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>145</v>
       </c>
@@ -4631,7 +5089,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>145</v>
       </c>
@@ -4642,8 +5100,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="18" t="s">
         <v>156</v>
       </c>
@@ -4654,7 +5112,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="18" t="s">
         <v>156</v>
       </c>
@@ -4665,7 +5123,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
         <v>156</v>
       </c>
@@ -4676,7 +5134,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="18" t="s">
         <v>156</v>
       </c>
@@ -4687,8 +5145,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>165</v>
       </c>
@@ -4699,7 +5157,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>165</v>
       </c>
@@ -4710,7 +5168,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>165</v>
       </c>
@@ -4721,7 +5179,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>165</v>
       </c>
@@ -4732,7 +5190,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>165</v>
       </c>
@@ -4743,8 +5201,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>176</v>
       </c>
@@ -4755,7 +5213,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>176</v>
       </c>
@@ -4766,8 +5224,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>184</v>
       </c>
@@ -4778,7 +5236,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>184</v>
       </c>
@@ -4789,7 +5247,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>184</v>
       </c>
@@ -4800,933 +5258,933 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>